--- a/public/import/Categorias.xlsx
+++ b/public/import/Categorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\tienda\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FAF13C-D677-4082-B839-E88ECDDEA843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1FAF3E-DD26-4EDA-B81C-117F8A6E336F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{190431D2-E99E-4CC8-9814-26C255DEA302}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>Modulo</t>
   </si>
@@ -223,6 +223,84 @@
   </si>
   <si>
     <t>ACEPTADA | ENVIADA SUNAT</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>NÚMERO DE ORDEN DE ENTREGA</t>
+  </si>
+  <si>
+    <t>NÚMERO SCOP</t>
+  </si>
+  <si>
+    <t>NÚMERO DE MANIFIESTO DE CARGA</t>
+  </si>
+  <si>
+    <t>NÚMERO DE CONSTANCIA DE DETRACCION</t>
+  </si>
+  <si>
+    <t>OTROS</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>NUMERACIÓN DAM</t>
+  </si>
+  <si>
+    <t>VENTA</t>
+  </si>
+  <si>
+    <t>COMPRA</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>VENTA SUJETA A CONFIRMACION DEL COMPRADOR</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>TRASLADO ENTRE ESTABLECIMIENTOS DE LA MISMA EMPRESA</t>
+  </si>
+  <si>
+    <t>TRASLADO EMISOR ITINERANTE CP</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>IMPORTACION</t>
+  </si>
+  <si>
+    <t>EXPORTACION</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>TRASLADO A ZONA PRIMARIA</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>TRANSPORTE PÚBLICO</t>
+  </si>
+  <si>
+    <t>TRANSPORTE PRIVADO</t>
   </si>
 </sst>
 </file>
@@ -609,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C291EB2-B0B0-413C-9899-EF0DCE462065}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,6 +1085,193 @@
         <v>63</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C23">
     <sortCondition ref="A3:A23"/>
